--- a/output/province_web_data/宁夏回族自治区_学习考察.xlsx
+++ b/output/province_web_data/宁夏回族自治区_学习考察.xlsx
@@ -436,14 +436,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
@@ -466,10 +466,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A2" t="n">
+        <v>30</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -498,10 +496,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A3" t="n">
+        <v>30</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -530,10 +526,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A4" t="n">
+        <v>30</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -562,10 +556,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A5" t="n">
+        <v>30</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -594,10 +586,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A6" t="n">
+        <v>30</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -626,10 +616,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A7" t="n">
+        <v>30</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -658,10 +646,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A8" t="n">
+        <v>30</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -690,10 +676,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A9" t="n">
+        <v>30</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -722,10 +706,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A10" t="n">
+        <v>30</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -754,10 +736,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A11" t="n">
+        <v>30</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -786,10 +766,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A12" t="n">
+        <v>30</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -818,10 +796,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A13" t="n">
+        <v>30</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -850,10 +826,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A14" t="n">
+        <v>30</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -882,10 +856,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A15" t="n">
+        <v>30</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -914,10 +886,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A16" t="n">
+        <v>30</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -946,10 +916,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A17" t="n">
+        <v>30</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -978,10 +946,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A18" t="n">
+        <v>30</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1010,10 +976,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A19" t="n">
+        <v>30</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1042,10 +1006,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A20" t="n">
+        <v>30</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1074,10 +1036,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A21" t="n">
+        <v>30</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1106,10 +1066,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A22" t="n">
+        <v>30</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1138,10 +1096,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A23" t="n">
+        <v>30</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1170,10 +1126,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A24" t="n">
+        <v>30</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1202,10 +1156,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A25" t="n">
+        <v>30</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1234,10 +1186,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A26" t="n">
+        <v>30</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1266,10 +1216,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A27" t="n">
+        <v>30</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1298,10 +1246,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A28" t="n">
+        <v>30</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1330,10 +1276,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A29" t="n">
+        <v>30</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1362,10 +1306,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A30" t="n">
+        <v>30</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1394,10 +1336,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A31" t="n">
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1426,10 +1366,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A32" t="n">
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1458,10 +1396,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A33" t="n">
+        <v>30</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1490,10 +1426,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A34" t="n">
+        <v>30</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1522,10 +1456,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A35" t="n">
+        <v>30</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1554,10 +1486,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A36" t="n">
+        <v>30</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1586,10 +1516,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A37" t="n">
+        <v>30</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1618,10 +1546,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A38" t="n">
+        <v>30</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1650,10 +1576,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A39" t="n">
+        <v>30</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1682,10 +1606,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A40" t="n">
+        <v>30</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1714,10 +1636,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A41" t="n">
+        <v>30</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1746,10 +1666,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A42" t="n">
+        <v>30</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1778,10 +1696,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A43" t="n">
+        <v>30</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1810,10 +1726,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A44" t="n">
+        <v>30</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1842,10 +1756,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A45" t="n">
+        <v>30</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1874,10 +1786,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A46" t="n">
+        <v>30</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1906,10 +1816,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A47" t="n">
+        <v>30</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1938,10 +1846,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A48" t="n">
+        <v>30</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1970,10 +1876,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A49" t="n">
+        <v>30</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2002,10 +1906,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A50" t="n">
+        <v>30</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2034,10 +1936,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A51" t="n">
+        <v>30</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2066,10 +1966,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A52" t="n">
+        <v>30</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2098,10 +1996,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A53" t="n">
+        <v>30</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2130,10 +2026,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A54" t="n">
+        <v>30</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2162,10 +2056,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A55" t="n">
+        <v>30</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2194,10 +2086,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A56" t="n">
+        <v>30</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2226,10 +2116,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A57" t="n">
+        <v>30</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2258,10 +2146,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A58" t="n">
+        <v>30</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2290,10 +2176,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A59" t="n">
+        <v>30</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2322,10 +2206,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A60" t="n">
+        <v>30</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2354,10 +2236,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A61" t="n">
+        <v>30</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2386,10 +2266,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A62" t="n">
+        <v>30</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2418,10 +2296,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A63" t="n">
+        <v>30</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2450,10 +2326,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A64" t="n">
+        <v>30</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2482,10 +2356,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A65" t="n">
+        <v>30</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2514,10 +2386,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A66" t="n">
+        <v>30</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2546,10 +2416,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A67" t="n">
+        <v>30</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2578,10 +2446,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A68" t="n">
+        <v>30</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2610,10 +2476,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A69" t="n">
+        <v>30</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2642,10 +2506,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A70" t="n">
+        <v>30</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2674,10 +2536,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A71" t="n">
+        <v>30</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2706,10 +2566,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A72" t="n">
+        <v>30</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2738,10 +2596,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A73" t="n">
+        <v>30</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2770,10 +2626,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A74" t="n">
+        <v>30</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2802,10 +2656,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A75" t="n">
+        <v>30</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2834,10 +2686,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A76" t="n">
+        <v>30</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2866,10 +2716,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A77" t="n">
+        <v>30</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2898,10 +2746,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A78" t="n">
+        <v>30</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2930,10 +2776,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A79" t="n">
+        <v>30</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2962,10 +2806,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A80" t="n">
+        <v>30</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2994,10 +2836,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A81" t="n">
+        <v>30</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3026,10 +2866,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A82" t="n">
+        <v>30</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3058,10 +2896,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A83" t="n">
+        <v>30</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3090,10 +2926,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A84" t="n">
+        <v>30</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3122,10 +2956,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A85" t="n">
+        <v>30</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3154,10 +2986,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A86" t="n">
+        <v>30</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3186,10 +3016,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A87" t="n">
+        <v>30</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3218,10 +3046,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A88" t="n">
+        <v>30</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3250,10 +3076,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A89" t="n">
+        <v>30</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3282,10 +3106,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A90" t="n">
+        <v>30</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3314,10 +3136,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A91" t="n">
+        <v>30</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3346,10 +3166,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A92" t="n">
+        <v>30</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3378,10 +3196,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A93" t="n">
+        <v>30</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3410,10 +3226,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A94" t="n">
+        <v>30</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3442,10 +3256,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A95" t="n">
+        <v>30</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3474,10 +3286,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A96" t="n">
+        <v>30</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3506,10 +3316,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A97" t="n">
+        <v>30</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3538,10 +3346,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A98" t="n">
+        <v>30</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3570,10 +3376,8 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A99" t="n">
+        <v>30</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3602,10 +3406,8 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A100" t="n">
+        <v>30</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3634,10 +3436,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A101" t="n">
+        <v>30</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3666,10 +3466,8 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A102" t="n">
+        <v>30</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3698,10 +3496,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A103" t="n">
+        <v>30</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3730,10 +3526,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A104" t="n">
+        <v>30</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3762,10 +3556,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A105" t="n">
+        <v>30</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3794,10 +3586,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A106" t="n">
+        <v>30</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3826,10 +3616,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A107" t="n">
+        <v>30</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3858,10 +3646,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A108" t="n">
+        <v>30</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3890,10 +3676,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A109" t="n">
+        <v>30</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3922,10 +3706,8 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A110" t="n">
+        <v>30</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3954,10 +3736,8 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A111" t="n">
+        <v>30</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3986,10 +3766,8 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A112" t="n">
+        <v>30</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -4018,10 +3796,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A113" t="n">
+        <v>30</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -4050,10 +3826,8 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A114" t="n">
+        <v>30</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -4082,10 +3856,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A115" t="n">
+        <v>30</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -4114,10 +3886,8 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A116" t="n">
+        <v>30</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -4146,10 +3916,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A117" t="n">
+        <v>30</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -4178,10 +3946,8 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A118" t="n">
+        <v>30</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -4210,10 +3976,8 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A119" t="n">
+        <v>30</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -4242,10 +4006,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A120" t="n">
+        <v>30</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -4274,10 +4036,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A121" t="n">
+        <v>30</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -4306,10 +4066,8 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A122" t="n">
+        <v>30</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -4338,10 +4096,8 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A123" t="n">
+        <v>30</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -4370,10 +4126,8 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A124" t="n">
+        <v>30</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -4402,10 +4156,8 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A125" t="n">
+        <v>30</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -4434,10 +4186,8 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A126" t="n">
+        <v>30</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -4466,10 +4216,8 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A127" t="n">
+        <v>30</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -4498,10 +4246,8 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A128" t="n">
+        <v>30</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -4530,10 +4276,8 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A129" t="n">
+        <v>30</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -4562,10 +4306,8 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A130" t="n">
+        <v>30</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -4594,10 +4336,8 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A131" t="n">
+        <v>30</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -4626,10 +4366,8 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A132" t="n">
+        <v>30</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4658,10 +4396,8 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A133" t="n">
+        <v>30</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4690,10 +4426,8 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A134" t="n">
+        <v>30</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -4722,10 +4456,8 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A135" t="n">
+        <v>30</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -4754,10 +4486,8 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A136" t="n">
+        <v>30</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -4786,10 +4516,8 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A137" t="n">
+        <v>30</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4818,10 +4546,8 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A138" t="n">
+        <v>30</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4850,10 +4576,8 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A139" t="n">
+        <v>30</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -4882,10 +4606,8 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A140" t="n">
+        <v>30</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -4914,10 +4636,8 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A141" t="n">
+        <v>30</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -4946,10 +4666,8 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A142" t="n">
+        <v>30</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -4978,10 +4696,8 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A143" t="n">
+        <v>30</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -5010,10 +4726,8 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A144" t="n">
+        <v>30</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -5042,10 +4756,8 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A145" t="n">
+        <v>30</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -5074,10 +4786,8 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A146" t="n">
+        <v>30</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -5106,10 +4816,8 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A147" t="n">
+        <v>30</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -5138,10 +4846,8 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A148" t="n">
+        <v>30</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -5170,10 +4876,8 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A149" t="n">
+        <v>30</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -5202,10 +4906,8 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A150" t="n">
+        <v>30</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -5234,10 +4936,8 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A151" t="n">
+        <v>30</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -5266,10 +4966,8 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A152" t="n">
+        <v>30</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -5298,10 +4996,8 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A153" t="n">
+        <v>30</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -5330,10 +5026,8 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A154" t="n">
+        <v>30</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -5362,10 +5056,8 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A155" t="n">
+        <v>30</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -5394,10 +5086,8 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A156" t="n">
+        <v>30</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -5426,10 +5116,8 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A157" t="n">
+        <v>30</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -5458,10 +5146,8 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A158" t="n">
+        <v>30</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -5490,10 +5176,8 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A159" t="n">
+        <v>30</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -5522,10 +5206,8 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A160" t="n">
+        <v>30</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -5554,10 +5236,8 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A161" t="n">
+        <v>30</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -5586,10 +5266,8 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A162" t="n">
+        <v>30</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -5618,10 +5296,8 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A163" t="n">
+        <v>30</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -5650,10 +5326,8 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A164" t="n">
+        <v>30</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -5682,10 +5356,8 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A165" t="n">
+        <v>30</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -5714,10 +5386,8 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A166" t="n">
+        <v>30</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -5746,10 +5416,8 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A167" t="n">
+        <v>30</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -5778,10 +5446,8 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A168" t="n">
+        <v>30</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -5810,10 +5476,8 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A169" t="n">
+        <v>30</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -5842,10 +5506,8 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A170" t="n">
+        <v>30</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -5874,10 +5536,8 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A171" t="n">
+        <v>30</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -5906,10 +5566,8 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A172" t="n">
+        <v>30</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -5938,10 +5596,8 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A173" t="n">
+        <v>30</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -5970,10 +5626,8 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A174" t="n">
+        <v>30</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -6002,10 +5656,8 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A175" t="n">
+        <v>30</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -6034,10 +5686,8 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A176" t="n">
+        <v>30</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -6066,10 +5716,8 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A177" t="n">
+        <v>30</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -6098,10 +5746,8 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A178" t="n">
+        <v>30</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -6130,10 +5776,8 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A179" t="n">
+        <v>30</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -6162,10 +5806,8 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A180" t="n">
+        <v>30</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -6194,10 +5836,8 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A181" t="n">
+        <v>30</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -6226,10 +5866,8 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A182" t="n">
+        <v>30</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -6258,10 +5896,8 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A183" t="n">
+        <v>30</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -6290,10 +5926,8 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A184" t="n">
+        <v>30</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -6322,10 +5956,8 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A185" t="n">
+        <v>30</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -6354,10 +5986,8 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A186" t="n">
+        <v>30</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -6386,10 +6016,8 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A187" t="n">
+        <v>30</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -6418,10 +6046,8 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A188" t="n">
+        <v>30</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -6450,10 +6076,8 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A189" t="n">
+        <v>30</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -6482,10 +6106,8 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A190" t="n">
+        <v>30</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -6514,10 +6136,8 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A191" t="n">
+        <v>30</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -6546,10 +6166,8 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A192" t="n">
+        <v>30</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -6578,10 +6196,8 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A193" t="n">
+        <v>30</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -6610,10 +6226,8 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A194" t="n">
+        <v>30</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -6642,10 +6256,8 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A195" t="n">
+        <v>30</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -6674,10 +6286,8 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A196" t="n">
+        <v>30</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -6706,10 +6316,8 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A197" t="n">
+        <v>30</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -6738,10 +6346,8 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A198" t="n">
+        <v>30</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -6770,10 +6376,8 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A199" t="n">
+        <v>30</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -6802,10 +6406,8 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A200" t="n">
+        <v>30</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -6834,10 +6436,8 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A201" t="n">
+        <v>30</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -6866,10 +6466,8 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A202" t="n">
+        <v>30</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -6898,10 +6496,8 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A203" t="n">
+        <v>30</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -6930,10 +6526,8 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A204" t="n">
+        <v>30</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -6962,10 +6556,8 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A205" t="n">
+        <v>30</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -6994,10 +6586,8 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A206" t="n">
+        <v>30</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -7026,10 +6616,8 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A207" t="n">
+        <v>30</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -7058,10 +6646,8 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A208" t="n">
+        <v>30</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -7090,10 +6676,8 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A209" t="n">
+        <v>30</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -7122,10 +6706,8 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A210" t="n">
+        <v>30</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -7154,10 +6736,8 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A211" t="n">
+        <v>30</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -7186,10 +6766,8 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A212" t="n">
+        <v>30</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -7218,10 +6796,8 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A213" t="n">
+        <v>30</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -7250,10 +6826,8 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A214" t="n">
+        <v>30</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -7282,10 +6856,8 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A215" t="n">
+        <v>30</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -7314,10 +6886,8 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A216" t="n">
+        <v>30</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -7346,10 +6916,8 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A217" t="n">
+        <v>30</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -7378,10 +6946,8 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A218" t="n">
+        <v>30</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -7410,10 +6976,8 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A219" t="n">
+        <v>30</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -7442,10 +7006,8 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A220" t="n">
+        <v>30</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -7474,10 +7036,8 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A221" t="n">
+        <v>30</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -7506,10 +7066,8 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A222" t="n">
+        <v>30</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -7538,10 +7096,8 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A223" t="n">
+        <v>30</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -7570,10 +7126,8 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A224" t="n">
+        <v>30</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -7602,10 +7156,8 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A225" t="n">
+        <v>30</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -7634,10 +7186,8 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A226" t="n">
+        <v>30</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -7666,10 +7216,8 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A227" t="n">
+        <v>30</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -7698,10 +7246,8 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A228" t="n">
+        <v>30</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -7730,10 +7276,8 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A229" t="n">
+        <v>30</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -7762,10 +7306,8 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A230" t="n">
+        <v>30</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -7794,10 +7336,8 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A231" t="n">
+        <v>30</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -7826,10 +7366,8 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A232" t="n">
+        <v>30</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -7858,10 +7396,8 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A233" t="n">
+        <v>30</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -7890,10 +7426,8 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A234" t="n">
+        <v>30</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -7922,10 +7456,8 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A235" t="n">
+        <v>30</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -7954,10 +7486,8 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A236" t="n">
+        <v>30</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -7986,10 +7516,8 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A237" t="n">
+        <v>30</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -8018,10 +7546,8 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A238" t="n">
+        <v>30</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -8050,10 +7576,8 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A239" t="n">
+        <v>30</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -8082,10 +7606,8 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A240" t="n">
+        <v>30</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -8114,10 +7636,8 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
+      <c r="A241" t="n">
+        <v>30</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
